--- a/trunk/Document/Bang Thoi Gian.xlsx
+++ b/trunk/Document/Bang Thoi Gian.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Bảng thời gian thực hiện công việc</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t xml:space="preserve"> Luyện, Linh</t>
+  </si>
+  <si>
+    <t>Thứ tự</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +122,12 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -269,15 +278,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,44 +334,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E6:Z87"/>
+  <dimension ref="E6:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,701 +670,709 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="9" t="s">
+    <row r="6" spans="5:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="V6" s="18" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12"/>
+      <c r="V6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-    </row>
-    <row r="7" spans="5:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-    </row>
-    <row r="10" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E10" s="4" t="s">
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+    </row>
+    <row r="7" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+    </row>
+    <row r="10" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="15" t="s">
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="V10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19" t="s">
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="19"/>
-    </row>
-    <row r="11" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E11" s="3" t="s">
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="3">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="2">
         <v>1</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="V11" s="20" t="s">
+      <c r="R11" s="6"/>
+      <c r="V11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20" t="s">
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="20"/>
-    </row>
-    <row r="12" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E12" s="3" t="s">
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="3">
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="2">
         <v>2</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="R12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="V12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2" t="s">
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V13" s="2" t="s">
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2" t="s">
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-    </row>
-    <row r="16" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
     </row>
     <row r="36" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
     </row>
     <row r="37" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
     </row>
     <row r="40" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
     </row>
     <row r="41" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
     </row>
     <row r="42" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
     </row>
     <row r="45" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
     </row>
     <row r="46" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
     </row>
     <row r="47" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
     </row>
     <row r="48" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
     </row>
     <row r="50" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
     </row>
     <row r="53" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
     </row>
     <row r="54" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
     </row>
     <row r="56" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
     </row>
     <row r="57" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
     </row>
     <row r="59" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
     </row>
     <row r="60" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
     </row>
     <row r="61" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
     </row>
     <row r="62" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
     </row>
     <row r="63" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
     </row>
     <row r="64" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
     </row>
     <row r="65" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
     </row>
     <row r="66" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
     </row>
     <row r="67" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
     </row>
     <row r="68" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
     </row>
     <row r="69" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
     </row>
     <row r="70" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V70" s="21"/>
-      <c r="W70" s="21"/>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
     </row>
     <row r="71" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="21"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
     </row>
     <row r="72" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
     </row>
     <row r="73" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
     </row>
     <row r="75" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
     </row>
     <row r="76" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V76" s="21"/>
-      <c r="W76" s="21"/>
-      <c r="X76" s="21"/>
-      <c r="Y76" s="21"/>
-      <c r="Z76" s="21"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
     </row>
     <row r="77" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="21"/>
-      <c r="Y77" s="21"/>
-      <c r="Z77" s="21"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
     </row>
     <row r="78" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V78" s="21"/>
-      <c r="W78" s="21"/>
-      <c r="X78" s="21"/>
-      <c r="Y78" s="21"/>
-      <c r="Z78" s="21"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="21"/>
-      <c r="Y79" s="21"/>
-      <c r="Z79" s="21"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
     </row>
     <row r="80" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V80" s="21"/>
-      <c r="W80" s="21"/>
-      <c r="X80" s="21"/>
-      <c r="Y80" s="21"/>
-      <c r="Z80" s="21"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
     </row>
     <row r="81" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V81" s="21"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="21"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="21"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
     </row>
     <row r="82" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V82" s="21"/>
-      <c r="W82" s="21"/>
-      <c r="X82" s="21"/>
-      <c r="Y82" s="21"/>
-      <c r="Z82" s="21"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
     </row>
     <row r="83" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="21"/>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="21"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
     </row>
     <row r="84" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="21"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
     </row>
     <row r="85" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="Z85" s="21"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
     </row>
     <row r="86" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="21"/>
-      <c r="Y86" s="21"/>
-      <c r="Z86" s="21"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
     </row>
     <row r="87" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="X87" s="21"/>
-      <c r="Y87" s="21"/>
-      <c r="Z87" s="21"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="G12:M12"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="E6:R7"/>
-    <mergeCell ref="V6:Z7"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y11:Z11"/>
@@ -1363,6 +1381,12 @@
     <mergeCell ref="G10:M10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="G11:M11"/>
+    <mergeCell ref="V6:AA7"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="G12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Document/Bang Thoi Gian.xlsx
+++ b/trunk/Document/Bang Thoi Gian.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Bảng thời gian thực hiện công việc</t>
   </si>
@@ -85,13 +85,52 @@
   </si>
   <si>
     <t>Thứ tự</t>
+  </si>
+  <si>
+    <t>Công Việc</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đa ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Xem chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Trang Quản trị</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>Chức năng người dùng đăng ký đăng nhập</t>
+  </si>
+  <si>
+    <t>Xây dựng menu sản phẩm</t>
+  </si>
+  <si>
+    <t>20/01/2011</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Luyện &amp; Linh</t>
+  </si>
+  <si>
+    <t>Sau ngày 20/01/2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +170,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -278,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,49 +341,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,16 +689,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E6:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="24.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
@@ -671,52 +719,52 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
-      <c r="V6" s="16" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+      <c r="V6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
     </row>
     <row r="10" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E10" s="3" t="s">
@@ -754,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="Z10" s="17"/>
-      <c r="AA10" s="21" t="s">
+      <c r="AA10" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -765,34 +813,34 @@
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="2">
         <v>1</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9" t="s">
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="22">
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="9">
         <v>1</v>
       </c>
     </row>
@@ -803,50 +851,50 @@
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="2">
         <v>2</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9" t="s">
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="22">
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="V13" s="9" t="s">
+      <c r="V13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9" t="s">
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="22">
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="9">
         <v>2</v>
       </c>
     </row>
@@ -854,8 +902,8 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="V15" s="7"/>
@@ -871,112 +919,193 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E28" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="22:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
@@ -1370,6 +1499,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="G12:M12"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="E6:R7"/>
@@ -1382,11 +1516,6 @@
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="G11:M11"/>
     <mergeCell ref="V6:AA7"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="G12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
